--- a/Output_Efficient_Frontier/allocation_evolution.xlsx
+++ b/Output_Efficient_Frontier/allocation_evolution.xlsx
@@ -468,16 +468,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5835241483304153</v>
+        <v>0.5835222485728908</v>
       </c>
       <c r="C2">
-        <v>4.730167208021216E-17</v>
+        <v>1.422646809929598E-17</v>
       </c>
       <c r="D2">
-        <v>2.181770546642094E-17</v>
+        <v>1.736833592056274E-17</v>
       </c>
       <c r="E2">
-        <v>0.4164758516695848</v>
+        <v>0.4164777514271094</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -485,16 +485,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.680699568992205</v>
+        <v>0.6807031040492879</v>
       </c>
       <c r="C3">
-        <v>0.02939767069526357</v>
+        <v>0.02939698724424738</v>
       </c>
       <c r="D3">
-        <v>1.818548301821809E-17</v>
+        <v>8.991642347659649E-18</v>
       </c>
       <c r="E3">
-        <v>0.2899027603125315</v>
+        <v>0.2898999087064649</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -502,16 +502,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6522756082939606</v>
+        <v>0.6522805680405503</v>
       </c>
       <c r="C4">
-        <v>0.08467473440214927</v>
+        <v>0.08467379786954794</v>
       </c>
       <c r="D4">
-        <v>3.25481036893301E-17</v>
+        <v>2.352847962458237E-17</v>
       </c>
       <c r="E4">
-        <v>0.2630496573038903</v>
+        <v>0.2630456340899022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -519,16 +519,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6250242571939257</v>
+        <v>0.625030707480156</v>
       </c>
       <c r="C5">
-        <v>0.1375340683994599</v>
+        <v>0.1375328806254813</v>
       </c>
       <c r="D5">
-        <v>4.649799633315687E-17</v>
+        <v>5.544621666167846E-17</v>
       </c>
       <c r="E5">
-        <v>0.2374416744066143</v>
+        <v>0.2374364118943628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -536,16 +536,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5983011997390729</v>
+        <v>0.5983084744496304</v>
       </c>
       <c r="C6">
-        <v>0.1890213419928757</v>
+        <v>0.1890200088716409</v>
       </c>
       <c r="D6">
-        <v>1.705482597086205E-17</v>
+        <v>2.030229261317053E-17</v>
       </c>
       <c r="E6">
-        <v>0.2126774582680515</v>
+        <v>0.2126715166787288</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -553,16 +553,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5704939941058789</v>
+        <v>0.5704970759451012</v>
       </c>
       <c r="C7">
-        <v>0.2398523449353038</v>
+        <v>0.2398516513968969</v>
       </c>
       <c r="D7">
-        <v>9.799376942994591E-18</v>
+        <v>4.934269075531389E-17</v>
       </c>
       <c r="E7">
-        <v>0.1896536609588174</v>
+        <v>0.1896512726580019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -570,16 +570,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5654964484623327</v>
+        <v>0.5655000692060004</v>
       </c>
       <c r="C8">
-        <v>0.2866375766482742</v>
+        <v>0.2866367930411767</v>
       </c>
       <c r="D8">
-        <v>1.496291066522561E-17</v>
+        <v>3.318971879346444E-17</v>
       </c>
       <c r="E8">
-        <v>0.1478659748893934</v>
+        <v>0.1478631377528231</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -587,16 +587,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5222892107865597</v>
+        <v>0.5222893362822182</v>
       </c>
       <c r="C9">
-        <v>0.3389733474259488</v>
+        <v>0.3389730232353861</v>
       </c>
       <c r="D9">
-        <v>1.021424902103296E-17</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.138737441787492</v>
+        <v>0.138737640482396</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -604,16 +604,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5643676295946843</v>
+        <v>0.5643678946409599</v>
       </c>
       <c r="C10">
-        <v>0.3782512653138212</v>
+        <v>0.3782509697043549</v>
       </c>
       <c r="D10">
-        <v>1.866399156987263E-17</v>
+        <v>4.098656890013338E-18</v>
       </c>
       <c r="E10">
-        <v>0.05738110509149443</v>
+        <v>0.05738113565468521</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -621,16 +621,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5591961265800618</v>
+        <v>0.559196292178651</v>
       </c>
       <c r="C11">
-        <v>0.4408038734199385</v>
+        <v>0.4408037078213491</v>
       </c>
       <c r="D11">
-        <v>4.234723369503288E-17</v>
+        <v>6.091061063521513E-19</v>
       </c>
       <c r="E11">
-        <v>5.537843728134992E-17</v>
+        <v>5.566885427036436E-17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -638,16 +638,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4599300180232849</v>
+        <v>0.4599301387996401</v>
       </c>
       <c r="C12">
-        <v>0.5400699819767152</v>
+        <v>0.5400698612003603</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4.326466860379898E-18</v>
       </c>
       <c r="E12">
-        <v>2.412809256860947E-17</v>
+        <v>2.390213158969267E-17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -655,16 +655,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3782142481701674</v>
+        <v>0.3782143347839406</v>
       </c>
       <c r="C13">
-        <v>0.6217857518298329</v>
+        <v>0.6217856652160594</v>
       </c>
       <c r="D13">
-        <v>4.046770396422485E-18</v>
+        <v>5.097125135117297E-17</v>
       </c>
       <c r="E13">
-        <v>2.753691943956799E-17</v>
+        <v>3.417513223801875E-17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -672,16 +672,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3009669507285732</v>
+        <v>0.3009670364760207</v>
       </c>
       <c r="C14">
-        <v>0.699033049271427</v>
+        <v>0.6990329635239796</v>
       </c>
       <c r="D14">
-        <v>4.531497947507041E-17</v>
+        <v>9.490415552742233E-17</v>
       </c>
       <c r="E14">
-        <v>4.117651344907253E-17</v>
+        <v>2.614773834171219E-17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -689,16 +689,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2310720446447998</v>
+        <v>0.2310720973544609</v>
       </c>
       <c r="C15">
-        <v>0.7689279553552005</v>
+        <v>0.7689279026455395</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6.637470507024989E-17</v>
       </c>
       <c r="E15">
-        <v>4.598784165827489E-17</v>
+        <v>6.246980734568344E-17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -706,16 +706,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1661834927375346</v>
+        <v>0.1661835187194724</v>
       </c>
       <c r="C16">
-        <v>0.8338165072624658</v>
+        <v>0.833816481280528</v>
       </c>
       <c r="D16">
-        <v>1.364441085598884E-16</v>
+        <v>1.968443026068092E-17</v>
       </c>
       <c r="E16">
-        <v>1.418833492723647E-18</v>
+        <v>2.443566963900196E-17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -723,16 +723,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1047968486306762</v>
+        <v>0.10479685193723</v>
       </c>
       <c r="C17">
-        <v>0.8952031513693243</v>
+        <v>0.895203148062771</v>
       </c>
       <c r="D17">
-        <v>2.168970167472735E-17</v>
+        <v>1.465539077748752E-16</v>
       </c>
       <c r="E17">
-        <v>9.147098416895924E-17</v>
+        <v>2.961014529429206E-17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -740,16 +740,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.04599977817705721</v>
+        <v>0.04599976163633949</v>
       </c>
       <c r="C18">
-        <v>0.9540002218229442</v>
+        <v>0.9540002383636609</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>9.253237830251292E-18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -757,16 +757,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.05147400840116965</v>
+        <v>0.05147423932091187</v>
       </c>
       <c r="C19">
-        <v>0.9485259915988294</v>
+        <v>0.9485257606790898</v>
       </c>
       <c r="D19">
-        <v>7.968766574968324E-16</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>4.838365721863585E-16</v>
+        <v>3.635415579357679E-16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -774,16 +774,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2076925377709681</v>
+        <v>0.2076928028855702</v>
       </c>
       <c r="C20">
-        <v>0.792307462229032</v>
+        <v>0.7923071971144329</v>
       </c>
       <c r="D20">
-        <v>3.924155129251041E-16</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1.580012538240022E-16</v>
+        <v>1.106238364411458E-16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -791,16 +791,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3133805131694703</v>
+        <v>0.3133807741643652</v>
       </c>
       <c r="C21">
-        <v>0.6866194868305298</v>
+        <v>0.6866192258356352</v>
       </c>
       <c r="D21">
-        <v>9.643809099111277E-16</v>
+        <v>1.068233950957633E-16</v>
       </c>
       <c r="E21">
-        <v>1.123457838635829E-16</v>
+        <v>4.797629802379249E-17</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Efficient_Frontier/allocation_evolution.xlsx
+++ b/Output_Efficient_Frontier/allocation_evolution.xlsx
@@ -468,16 +468,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5835222485728908</v>
+        <v>0.5751361771484172</v>
       </c>
       <c r="C2">
-        <v>1.422646809929598E-17</v>
+        <v>2.466962064156741E-17</v>
       </c>
       <c r="D2">
-        <v>1.736833592056274E-17</v>
+        <v>2.363402517756339E-17</v>
       </c>
       <c r="E2">
-        <v>0.4164777514271094</v>
+        <v>0.424863822851583</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -485,16 +485,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6807031040492879</v>
+        <v>0.6750802544890616</v>
       </c>
       <c r="C3">
-        <v>0.02939698724424738</v>
+        <v>0.02723511654315894</v>
       </c>
       <c r="D3">
-        <v>8.991642347659649E-18</v>
+        <v>9.426091228504692E-18</v>
       </c>
       <c r="E3">
-        <v>0.2898999087064649</v>
+        <v>0.2976846289677795</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -502,16 +502,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6522805680405503</v>
+        <v>0.6451711236345137</v>
       </c>
       <c r="C4">
-        <v>0.08467379786954794</v>
+        <v>0.08205461260224044</v>
       </c>
       <c r="D4">
-        <v>2.352847962458237E-17</v>
+        <v>2.644931075880459E-17</v>
       </c>
       <c r="E4">
-        <v>0.2630456340899022</v>
+        <v>0.2727742637632459</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -519,16 +519,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.625030707480156</v>
+        <v>0.5910238022775942</v>
       </c>
       <c r="C5">
-        <v>0.1375328806254813</v>
+        <v>0.1391636417985553</v>
       </c>
       <c r="D5">
-        <v>5.544621666167846E-17</v>
+        <v>1.044287446963929E-17</v>
       </c>
       <c r="E5">
-        <v>0.2374364118943628</v>
+        <v>0.2698125559238506</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -536,16 +536,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5983084744496304</v>
+        <v>0.5843256824436807</v>
       </c>
       <c r="C6">
-        <v>0.1890200088716409</v>
+        <v>0.1862025985197403</v>
       </c>
       <c r="D6">
-        <v>2.030229261317053E-17</v>
+        <v>8.174680601044159E-17</v>
       </c>
       <c r="E6">
-        <v>0.2126715166787288</v>
+        <v>0.2294717190365793</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -553,16 +553,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5704970759451012</v>
+        <v>0.5799847474826417</v>
       </c>
       <c r="C7">
-        <v>0.2398516513968969</v>
+        <v>0.2329106710862489</v>
       </c>
       <c r="D7">
-        <v>4.934269075531389E-17</v>
+        <v>6.08949329548628E-17</v>
       </c>
       <c r="E7">
-        <v>0.1896512726580019</v>
+        <v>0.1871045814311097</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -570,16 +570,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5655000692060004</v>
+        <v>0.5324188261000382</v>
       </c>
       <c r="C8">
-        <v>0.2866367930411767</v>
+        <v>0.2855288830676781</v>
       </c>
       <c r="D8">
-        <v>3.318971879346444E-17</v>
+        <v>5.716872778118452E-18</v>
       </c>
       <c r="E8">
-        <v>0.1478631377528231</v>
+        <v>0.1820522908322838</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -587,16 +587,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5222893362822182</v>
+        <v>0.5453890658290842</v>
       </c>
       <c r="C9">
-        <v>0.3389730232353861</v>
+        <v>0.3289560090079854</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.328609030586219E-17</v>
       </c>
       <c r="E9">
-        <v>0.138737640482396</v>
+        <v>0.1256549251629304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -604,16 +604,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5643678946409599</v>
+        <v>0.5895683429158111</v>
       </c>
       <c r="C10">
-        <v>0.3782509697043549</v>
+        <v>0.3672662164535064</v>
       </c>
       <c r="D10">
-        <v>4.098656890013338E-18</v>
+        <v>2.947754533592641E-17</v>
       </c>
       <c r="E10">
-        <v>0.05738113565468521</v>
+        <v>0.04316544063068292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -621,16 +621,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.559196292178651</v>
+        <v>0.5549117641171317</v>
       </c>
       <c r="C11">
-        <v>0.4408037078213491</v>
+        <v>0.4450882358828684</v>
       </c>
       <c r="D11">
-        <v>6.091061063521513E-19</v>
+        <v>1.96796022395303E-17</v>
       </c>
       <c r="E11">
-        <v>5.566885427036436E-17</v>
+        <v>2.224166871262383E-17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -638,16 +638,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4599301387996401</v>
+        <v>0.4577152453578238</v>
       </c>
       <c r="C12">
-        <v>0.5400698612003603</v>
+        <v>0.5422847546421761</v>
       </c>
       <c r="D12">
-        <v>4.326466860379898E-18</v>
+        <v>6.159059893118387E-17</v>
       </c>
       <c r="E12">
-        <v>2.390213158969267E-17</v>
+        <v>2.318281179560492E-17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -655,16 +655,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3782143347839406</v>
+        <v>0.3768706955539503</v>
       </c>
       <c r="C13">
-        <v>0.6217856652160594</v>
+        <v>0.6231293044460499</v>
       </c>
       <c r="D13">
-        <v>5.097125135117297E-17</v>
+        <v>2.715740638231E-17</v>
       </c>
       <c r="E13">
-        <v>3.417513223801875E-17</v>
+        <v>2.404847267465173E-17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -672,16 +672,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3009670364760207</v>
+        <v>0.3002685485901527</v>
       </c>
       <c r="C14">
-        <v>0.6990329635239796</v>
+        <v>0.6997314514098473</v>
       </c>
       <c r="D14">
-        <v>9.490415552742233E-17</v>
+        <v>4.681288759348745E-17</v>
       </c>
       <c r="E14">
-        <v>2.614773834171219E-17</v>
+        <v>1.93345466617878E-17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -689,16 +689,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2310720973544609</v>
+        <v>0.2307223637447028</v>
       </c>
       <c r="C15">
-        <v>0.7689279026455395</v>
+        <v>0.7692776362552974</v>
       </c>
       <c r="D15">
-        <v>6.637470507024989E-17</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>6.246980734568344E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -706,16 +706,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1661835187194724</v>
+        <v>0.1660317452113918</v>
       </c>
       <c r="C16">
-        <v>0.833816481280528</v>
+        <v>0.8339682547886088</v>
       </c>
       <c r="D16">
-        <v>1.968443026068092E-17</v>
+        <v>1.658142185520935E-17</v>
       </c>
       <c r="E16">
-        <v>2.443566963900196E-17</v>
+        <v>5.47611250742193E-17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -723,16 +723,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.10479685193723</v>
+        <v>0.1047540661797882</v>
       </c>
       <c r="C17">
-        <v>0.895203148062771</v>
+        <v>0.895245933820212</v>
       </c>
       <c r="D17">
-        <v>1.465539077748752E-16</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.961014529429206E-17</v>
+        <v>5.632502838082981E-17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -740,16 +740,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.04599976163633949</v>
+        <v>0.04600841998310942</v>
       </c>
       <c r="C18">
-        <v>0.9540002383636609</v>
+        <v>0.9539915800168925</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.253237830251292E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -757,16 +757,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.05147423932091187</v>
+        <v>0.05145965600790939</v>
       </c>
       <c r="C19">
-        <v>0.9485257606790898</v>
+        <v>0.9485403439920845</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4.216004780847969E-15</v>
       </c>
       <c r="E19">
-        <v>3.635415579357679E-16</v>
+        <v>1.762827200856552E-15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -774,16 +774,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2076928028855702</v>
+        <v>0.2078116153836905</v>
       </c>
       <c r="C20">
-        <v>0.7923071971144329</v>
+        <v>0.7921883846163101</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>8.198738745951943E-18</v>
       </c>
       <c r="E20">
-        <v>1.106238364411458E-16</v>
+        <v>4.223407669626065E-17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -791,16 +791,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3133807741643652</v>
+        <v>0.3469228434407539</v>
       </c>
       <c r="C21">
-        <v>0.6866192258356352</v>
+        <v>0.6530771565592489</v>
       </c>
       <c r="D21">
-        <v>1.068233950957633E-16</v>
+        <v>1.771220385469332E-17</v>
       </c>
       <c r="E21">
-        <v>4.797629802379249E-17</v>
+        <v>6.726697519816044E-17</v>
       </c>
     </row>
   </sheetData>
